--- a/output.xlsx
+++ b/output.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="C2" t="n">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="D2" t="n">
-        <v>1000000</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
       <c r="C3" t="n">
-        <v>500000</v>
+        <v>516000</v>
       </c>
       <c r="D3" t="n">
-        <v>420000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380000</v>
+        <v>444444</v>
       </c>
       <c r="C4" t="n">
-        <v>319999</v>
+        <v>355000</v>
       </c>
       <c r="D4" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105000</v>
+        <v>280000</v>
       </c>
       <c r="C5" t="n">
-        <v>182325</v>
+        <v>250000</v>
       </c>
       <c r="D5" t="n">
-        <v>150150</v>
+        <v>60775</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="C6" t="n">
-        <v>260000</v>
+        <v>80739</v>
       </c>
       <c r="D6" t="n">
-        <v>211111</v>
+        <v>178500</v>
       </c>
     </row>
   </sheetData>
